--- a/01_Planning/InitalPlanning.xlsx
+++ b/01_Planning/InitalPlanning.xlsx
@@ -6,20 +6,36 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Ressource Planning - Ressource " sheetId="1" r:id="rId4"/>
-    <sheet name="Ressource Planning - Prios as N" sheetId="2" r:id="rId5"/>
-    <sheet name="Ressource Planning - Priorities" sheetId="3" r:id="rId6"/>
-    <sheet name="First User Stories" sheetId="4" r:id="rId7"/>
+    <sheet name="Export Summary" sheetId="1" r:id="rId4"/>
+    <sheet name="Ressource Planning - Ressource " sheetId="2" r:id="rId5"/>
+    <sheet name="Ressource Planning - Prios as N" sheetId="3" r:id="rId6"/>
+    <sheet name="Ressource Planning - Priorities" sheetId="4" r:id="rId7"/>
+    <sheet name="First User Stories" sheetId="5" r:id="rId8"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
+  <si>
+    <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
+  </si>
+  <si>
+    <t>Numbers Sheet Name</t>
+  </si>
+  <si>
+    <t>Numbers Table Name</t>
+  </si>
+  <si>
+    <t>Excel Worksheet Name</t>
+  </si>
   <si>
     <t>Ressource Planning</t>
   </si>
   <si>
+    <t xml:space="preserve">Ressource Planning - Ressource </t>
+  </si>
+  <si>
     <t>Topic</t>
   </si>
   <si>
@@ -33,6 +49,9 @@
   </si>
   <si>
     <t>Remarks</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
   <si>
     <t>Exchange Sue</t>
@@ -54,9 +73,15 @@
     <t>Ball</t>
   </si>
   <si>
+    <t>Jul06: Sent e-mail and asked for price and shipping costs.</t>
+  </si>
+  <si>
     <t>Own lockable room</t>
   </si>
   <si>
+    <t>Jul06: Clarified with Mr. Mörixbauer and Mr. Holzer that we can use a part of the room opposite to the music room (where the desks are currently stored). Room will be available by start of next school year.</t>
+  </si>
+  <si>
     <t>Bitbucket repository</t>
   </si>
   <si>
@@ -64,6 +89,33 @@
   </si>
   <si>
     <t>Bauepete</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">Jul05: Bitbucket not feasible since max 5 team members are allowed. Repository at </t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>gitlab.htl-leonding.ac.at</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> now set up. All team members have accounts and are member of the gitlab group. DONE.</t>
+    </r>
   </si>
   <si>
     <t>Check SPL Site regularly</t>
@@ -202,12 +254,18 @@
     <t>Prios as Numbers</t>
   </si>
   <si>
+    <t>Ressource Planning - Prios as N</t>
+  </si>
+  <si>
     <t>Prio</t>
   </si>
   <si>
     <t>Priorities</t>
   </si>
   <si>
+    <t>Ressource Planning - Priorities</t>
+  </si>
+  <si>
     <t>July 5 onwards</t>
   </si>
   <si>
@@ -218,6 +276,12 @@
   </si>
   <si>
     <t>From December onwards</t>
+  </si>
+  <si>
+    <t>First User Stories</t>
+  </si>
+  <si>
+    <t>Table 1</t>
   </si>
   <si>
     <t>Id</t>
@@ -245,7 +309,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -254,6 +318,17 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="12"/>
+      <color indexed="11"/>
       <name val="Helvetica"/>
     </font>
     <font>
@@ -269,7 +344,7 @@
       <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,7 +359,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="12"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -299,106 +386,106 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -408,20 +495,27 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -433,7 +527,7 @@
     <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -460,16 +554,16 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -478,10 +572,10 @@
     <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -504,6 +598,9 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="015e88b1"/>
+      <rgbColor rgb="01eef3f4"/>
+      <rgbColor rgb="ff0000ff"/>
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
@@ -1598,539 +1695,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A2:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="34.9453" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.67188" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.17188" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.8047" style="1" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="4" width="33.6016" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="3" ht="50" customHeight="1">
+      <c r="B3" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" ht="20.55" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="C3"/>
+      <c r="D3"/>
+    </row>
+    <row r="7">
+      <c r="B7" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="C7" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="D7" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+    </row>
+    <row r="9">
+      <c r="B9" t="s" s="3">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="4"/>
+      <c r="C10" t="s" s="4">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="20.55" customHeight="1">
-      <c r="A3" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s" s="5">
-        <v>7</v>
-      </c>
-      <c r="C3" s="6">
-        <f>VLOOKUP(B3,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
-        <v>1</v>
-      </c>
-      <c r="D3" t="s" s="7">
-        <v>8</v>
-      </c>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" ht="32.35" customHeight="1">
-      <c r="A4" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s" s="9">
-        <v>7</v>
-      </c>
-      <c r="C4" s="10">
-        <f>VLOOKUP(B4,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
-        <v>1</v>
-      </c>
-      <c r="D4" t="s" s="11">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s" s="9">
-        <v>7</v>
-      </c>
-      <c r="C5" s="10">
-        <f>VLOOKUP(B5,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
-        <v>1</v>
-      </c>
-      <c r="D5" t="s" s="11">
-        <v>8</v>
-      </c>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s" s="9">
-        <v>7</v>
-      </c>
-      <c r="C6" s="10">
-        <f>VLOOKUP(B6,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
-        <v>1</v>
-      </c>
-      <c r="D6" t="s" s="11">
-        <v>8</v>
-      </c>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s" s="9">
-        <v>7</v>
-      </c>
-      <c r="C7" s="10">
-        <f>VLOOKUP(B7,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
-        <v>1</v>
-      </c>
-      <c r="D7" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s" s="11">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" ht="32.35" customHeight="1">
-      <c r="A8" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s" s="9">
-        <v>7</v>
-      </c>
-      <c r="C8" s="10">
-        <f>VLOOKUP(B8,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
-        <v>1</v>
-      </c>
-      <c r="D8" t="s" s="11">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s" s="11">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s" s="9">
-        <v>7</v>
-      </c>
-      <c r="C9" s="10">
-        <f>VLOOKUP(B9,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
-        <v>1</v>
-      </c>
-      <c r="D9" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" t="s" s="8">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s" s="9">
-        <v>7</v>
-      </c>
-      <c r="C10" s="10">
-        <f>VLOOKUP(B10,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
-        <v>1</v>
-      </c>
-      <c r="D10" t="s" s="11">
-        <v>8</v>
-      </c>
-      <c r="E10" s="11"/>
-    </row>
-    <row r="11" ht="20.35" customHeight="1">
-      <c r="A11" t="s" s="8">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s" s="9">
-        <v>22</v>
-      </c>
-      <c r="C11" s="10">
-        <f>VLOOKUP(B11,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
-        <v>2</v>
-      </c>
-      <c r="D11" t="s" s="11">
-        <v>8</v>
-      </c>
-      <c r="E11" s="12"/>
-    </row>
-    <row r="12" ht="20.35" customHeight="1">
-      <c r="A12" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s" s="9">
-        <v>22</v>
-      </c>
-      <c r="C12" s="10">
-        <f>VLOOKUP(B12,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
-        <v>2</v>
-      </c>
-      <c r="D12" t="s" s="11">
-        <v>8</v>
-      </c>
-      <c r="E12" s="12"/>
-    </row>
-    <row r="13" ht="20.35" customHeight="1">
-      <c r="A13" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s" s="9">
-        <v>22</v>
-      </c>
-      <c r="C13" s="10">
-        <f>VLOOKUP(B13,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
-        <v>2</v>
-      </c>
-      <c r="D13" t="s" s="11">
-        <v>25</v>
-      </c>
-      <c r="E13" s="12"/>
-    </row>
-    <row r="14" ht="20.35" customHeight="1">
-      <c r="A14" t="s" s="8">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s" s="9">
-        <v>22</v>
-      </c>
-      <c r="C14" s="10">
-        <f>VLOOKUP(B14,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
-        <v>2</v>
-      </c>
-      <c r="D14" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E14" s="12"/>
-    </row>
-    <row r="15" ht="20.35" customHeight="1">
-      <c r="A15" t="s" s="8">
-        <v>27</v>
-      </c>
-      <c r="B15" t="s" s="9">
-        <v>22</v>
-      </c>
-      <c r="C15" s="10">
-        <f>VLOOKUP(B15,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
-        <v>2</v>
-      </c>
-      <c r="D15" t="s" s="11">
-        <v>8</v>
-      </c>
-      <c r="E15" s="12"/>
-    </row>
-    <row r="16" ht="20.35" customHeight="1">
-      <c r="A16" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s" s="9">
-        <v>22</v>
-      </c>
-      <c r="C16" s="10">
-        <f>VLOOKUP(B16,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
-        <v>2</v>
-      </c>
-      <c r="D16" t="s" s="11">
-        <v>25</v>
-      </c>
-      <c r="E16" t="s" s="11">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" ht="20.35" customHeight="1">
-      <c r="A17" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="B17" t="s" s="9">
-        <v>22</v>
-      </c>
-      <c r="C17" s="10">
-        <f>VLOOKUP(B17,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
-        <v>2</v>
-      </c>
-      <c r="D17" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E17" t="s" s="11">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" ht="20.35" customHeight="1">
-      <c r="A18" t="s" s="8">
-        <v>32</v>
-      </c>
-      <c r="B18" t="s" s="9">
-        <v>22</v>
-      </c>
-      <c r="C18" s="10">
-        <f>VLOOKUP(B18,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
-        <v>2</v>
-      </c>
-      <c r="D18" t="s" s="11">
-        <v>8</v>
-      </c>
-      <c r="E18" s="12"/>
-    </row>
-    <row r="19" ht="20.35" customHeight="1">
-      <c r="A19" t="s" s="8">
-        <v>33</v>
-      </c>
-      <c r="B19" t="s" s="9">
-        <v>22</v>
-      </c>
-      <c r="C19" s="10">
-        <f>VLOOKUP(B19,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
-        <v>2</v>
-      </c>
-      <c r="D19" t="s" s="11">
-        <v>17</v>
-      </c>
-      <c r="E19" t="s" s="11">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" ht="20.35" customHeight="1">
-      <c r="A20" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="B20" t="s" s="9">
-        <v>36</v>
-      </c>
-      <c r="C20" s="10">
-        <f>VLOOKUP(B20,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
-        <v>3</v>
-      </c>
-      <c r="D20" t="s" s="11">
-        <v>17</v>
-      </c>
-      <c r="E20" s="11"/>
-    </row>
-    <row r="21" ht="20.35" customHeight="1">
-      <c r="A21" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="B21" t="s" s="9">
-        <v>36</v>
-      </c>
-      <c r="C21" s="10">
-        <f>VLOOKUP(B21,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
-        <v>3</v>
-      </c>
-      <c r="D21" t="s" s="11">
-        <v>17</v>
-      </c>
-      <c r="E21" s="11"/>
-    </row>
-    <row r="22" ht="32.35" customHeight="1">
-      <c r="A22" t="s" s="8">
-        <v>38</v>
-      </c>
-      <c r="B22" t="s" s="9">
-        <v>36</v>
-      </c>
-      <c r="C22" s="10">
-        <f>VLOOKUP(B22,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
-        <v>3</v>
-      </c>
-      <c r="D22" t="s" s="11">
-        <v>25</v>
-      </c>
-      <c r="E22" t="s" s="11">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" ht="32.35" customHeight="1">
-      <c r="A23" t="s" s="8">
-        <v>40</v>
-      </c>
-      <c r="B23" t="s" s="9">
-        <v>36</v>
-      </c>
-      <c r="C23" s="10">
-        <f>VLOOKUP(B23,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
-        <v>3</v>
-      </c>
-      <c r="D23" t="s" s="11">
-        <v>8</v>
-      </c>
-      <c r="E23" s="11"/>
-    </row>
-    <row r="24" ht="20.35" customHeight="1">
-      <c r="A24" t="s" s="8">
-        <v>41</v>
-      </c>
-      <c r="B24" t="s" s="9">
-        <v>36</v>
-      </c>
-      <c r="C24" s="10">
-        <f>VLOOKUP(B24,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
-        <v>3</v>
-      </c>
-      <c r="D24" t="s" s="11">
-        <v>8</v>
-      </c>
-      <c r="E24" s="11"/>
-    </row>
-    <row r="25" ht="20.35" customHeight="1">
-      <c r="A25" t="s" s="8">
-        <v>42</v>
-      </c>
-      <c r="B25" t="s" s="9">
-        <v>43</v>
-      </c>
-      <c r="C25" s="10">
-        <f>VLOOKUP(B25,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
-        <v>4</v>
-      </c>
-      <c r="D25" t="s" s="11">
-        <v>8</v>
-      </c>
-      <c r="E25" s="11"/>
-    </row>
-    <row r="26" ht="20.35" customHeight="1">
-      <c r="A26" t="s" s="8">
-        <v>44</v>
-      </c>
-      <c r="B26" t="s" s="9">
-        <v>43</v>
-      </c>
-      <c r="C26" s="10">
-        <f>VLOOKUP(B26,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
-        <v>4</v>
-      </c>
-      <c r="D26" t="s" s="11">
-        <v>8</v>
-      </c>
-      <c r="E26" t="s" s="11">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" ht="20.35" customHeight="1">
-      <c r="A27" t="s" s="8">
-        <v>46</v>
-      </c>
-      <c r="B27" t="s" s="9">
-        <v>43</v>
-      </c>
-      <c r="C27" s="10">
-        <f>VLOOKUP(B27,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
-        <v>4</v>
-      </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-    </row>
-    <row r="28" ht="20.35" customHeight="1">
-      <c r="A28" t="s" s="8">
-        <v>47</v>
-      </c>
-      <c r="B28" t="s" s="9">
-        <v>43</v>
-      </c>
-      <c r="C28" s="10">
-        <f>VLOOKUP(B28,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
-        <v>4</v>
-      </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-    </row>
-    <row r="29" ht="20.35" customHeight="1">
-      <c r="A29" t="s" s="8">
-        <v>48</v>
-      </c>
-      <c r="B29" t="s" s="9">
-        <v>43</v>
-      </c>
-      <c r="C29" s="10">
-        <f>VLOOKUP(B29,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
-        <v>4</v>
-      </c>
-      <c r="D29" t="s" s="11">
-        <v>8</v>
-      </c>
-      <c r="E29" s="11"/>
-    </row>
-    <row r="30" ht="20.35" customHeight="1">
-      <c r="A30" t="s" s="8">
-        <v>49</v>
-      </c>
-      <c r="B30" t="s" s="9">
-        <v>43</v>
-      </c>
-      <c r="C30" s="10">
-        <f>VLOOKUP(B30,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
-        <v>4</v>
-      </c>
-      <c r="D30" t="s" s="11">
-        <v>17</v>
-      </c>
-      <c r="E30" s="11"/>
-    </row>
-    <row r="31" ht="20.35" customHeight="1">
-      <c r="A31" t="s" s="8">
-        <v>50</v>
-      </c>
-      <c r="B31" t="s" s="9">
-        <v>43</v>
-      </c>
-      <c r="C31" s="10">
-        <f>VLOOKUP(B31,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
-        <v>4</v>
-      </c>
-      <c r="D31" s="11"/>
-      <c r="E31" t="s" s="11">
-        <v>51</v>
+    <row r="11">
+      <c r="B11" s="4"/>
+      <c r="C11" t="s" s="4">
+        <v>61</v>
+      </c>
+      <c r="D11" t="s" s="5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="4"/>
+      <c r="C12" t="s" s="4">
+        <v>64</v>
+      </c>
+      <c r="D12" t="s" s="5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s" s="3">
+        <v>70</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="4"/>
+      <c r="C14" t="s" s="4">
+        <v>71</v>
+      </c>
+      <c r="D14" t="s" s="5">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B3:D3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E22" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="D10" location="'Ressource Planning - Ressource '!R2C1" tooltip="" display="Ressource Planning - Ressource "/>
+    <hyperlink ref="D11" location="'Ressource Planning - Prios as N'!R2C1" tooltip="" display="Ressource Planning - Prios as N"/>
+    <hyperlink ref="D12" location="'Ressource Planning - Priorities'!R2C1" tooltip="" display="Ressource Planning - Priorities"/>
+    <hyperlink ref="D14" location="'First User Stories'!R1C1" tooltip="" display="First User Stories"/>
   </hyperlinks>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
@@ -2139,7 +1790,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:B6"/>
+  <dimension ref="A2:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -2147,61 +1798,564 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="13" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="13" customWidth="1"/>
-    <col min="3" max="256" width="16.3516" style="13" customWidth="1"/>
+    <col min="1" max="1" width="34.9453" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.67188" style="6" customWidth="1"/>
+    <col min="3" max="3" width="6.17188" style="6" customWidth="1"/>
+    <col min="4" max="4" width="11.3516" style="6" customWidth="1"/>
+    <col min="5" max="5" width="26.8047" style="6" customWidth="1"/>
+    <col min="6" max="6" width="26.8047" style="6" customWidth="1"/>
+    <col min="7" max="256" width="16.3516" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28" customHeight="1">
-      <c r="A1" t="s" s="2">
+      <c r="A1" t="s" s="7">
+        <v>4</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" ht="20.55" customHeight="1">
+      <c r="A2" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s" s="8">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s" s="8">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" ht="20.55" customHeight="1">
+      <c r="A3" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="C3" s="11">
+        <f>VLOOKUP(B3,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
+        <v>1</v>
+      </c>
+      <c r="D3" t="s" s="12">
+        <v>14</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" ht="32.35" customHeight="1">
+      <c r="A4" t="s" s="13">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="C4" s="15">
+        <f>VLOOKUP(B4,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
+        <v>1</v>
+      </c>
+      <c r="D4" t="s" s="16">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s" s="16">
+        <v>16</v>
+      </c>
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" ht="32.35" customHeight="1">
+      <c r="A5" t="s" s="13">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="C5" s="15">
+        <f>VLOOKUP(B5,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
+        <v>1</v>
+      </c>
+      <c r="D5" t="s" s="16">
+        <v>14</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" t="s" s="16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" ht="92.35" customHeight="1">
+      <c r="A6" t="s" s="13">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="C6" s="15">
+        <f>VLOOKUP(B6,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
+        <v>1</v>
+      </c>
+      <c r="D6" t="s" s="16">
+        <v>14</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" t="s" s="16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" ht="92.35" customHeight="1">
+      <c r="A7" t="s" s="13">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="C7" s="15">
+        <f>VLOOKUP(B7,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" t="s" s="16">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s" s="16">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s" s="16">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" ht="32.35" customHeight="1">
+      <c r="A8" t="s" s="13">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="C8" s="15">
+        <f>VLOOKUP(B8,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
+        <v>1</v>
+      </c>
+      <c r="D8" t="s" s="16">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s" s="16">
+        <v>27</v>
+      </c>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" ht="20.35" customHeight="1">
+      <c r="A9" t="s" s="13">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="C9" s="15">
+        <f>VLOOKUP(B9,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
+        <v>1</v>
+      </c>
+      <c r="D9" t="s" s="16">
+        <v>22</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" ht="20.35" customHeight="1">
+      <c r="A10" t="s" s="13">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="C10" s="15">
+        <f>VLOOKUP(B10,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
+        <v>1</v>
+      </c>
+      <c r="D10" t="s" s="16">
+        <v>14</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11" ht="20.35" customHeight="1">
+      <c r="A11" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s" s="14">
+        <v>31</v>
+      </c>
+      <c r="C11" s="15">
+        <f>VLOOKUP(B11,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
+        <v>2</v>
+      </c>
+      <c r="D11" t="s" s="16">
+        <v>14</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" ht="20.35" customHeight="1">
+      <c r="A12" t="s" s="13">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s" s="14">
+        <v>31</v>
+      </c>
+      <c r="C12" s="15">
+        <f>VLOOKUP(B12,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
+        <v>2</v>
+      </c>
+      <c r="D12" t="s" s="16">
+        <v>14</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" ht="20.35" customHeight="1">
+      <c r="A13" t="s" s="13">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s" s="14">
+        <v>31</v>
+      </c>
+      <c r="C13" s="15">
+        <f>VLOOKUP(B13,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
+        <v>2</v>
+      </c>
+      <c r="D13" t="s" s="16">
+        <v>34</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14" ht="20.35" customHeight="1">
+      <c r="A14" t="s" s="13">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s" s="14">
+        <v>31</v>
+      </c>
+      <c r="C14" s="15">
+        <f>VLOOKUP(B14,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
+        <v>2</v>
+      </c>
+      <c r="D14" t="s" s="16">
+        <v>22</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+    </row>
+    <row r="15" ht="20.35" customHeight="1">
+      <c r="A15" t="s" s="13">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s" s="14">
+        <v>31</v>
+      </c>
+      <c r="C15" s="15">
+        <f>VLOOKUP(B15,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
+        <v>2</v>
+      </c>
+      <c r="D15" t="s" s="16">
+        <v>14</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" ht="20.35" customHeight="1">
+      <c r="A16" t="s" s="13">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s" s="14">
+        <v>31</v>
+      </c>
+      <c r="C16" s="15">
+        <f>VLOOKUP(B16,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
+        <v>2</v>
+      </c>
+      <c r="D16" t="s" s="16">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s" s="16">
+        <v>38</v>
+      </c>
+      <c r="F16" s="16"/>
+    </row>
+    <row r="17" ht="20.35" customHeight="1">
+      <c r="A17" t="s" s="13">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s" s="14">
+        <v>31</v>
+      </c>
+      <c r="C17" s="15">
+        <f>VLOOKUP(B17,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
+        <v>2</v>
+      </c>
+      <c r="D17" t="s" s="16">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s" s="16">
+        <v>40</v>
+      </c>
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" ht="20.35" customHeight="1">
+      <c r="A18" t="s" s="13">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s" s="14">
+        <v>31</v>
+      </c>
+      <c r="C18" s="15">
+        <f>VLOOKUP(B18,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
+        <v>2</v>
+      </c>
+      <c r="D18" t="s" s="16">
+        <v>14</v>
+      </c>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19" ht="20.35" customHeight="1">
+      <c r="A19" t="s" s="13">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s" s="14">
+        <v>31</v>
+      </c>
+      <c r="C19" s="15">
+        <f>VLOOKUP(B19,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
+        <v>2</v>
+      </c>
+      <c r="D19" t="s" s="16">
+        <v>26</v>
+      </c>
+      <c r="E19" t="s" s="16">
+        <v>43</v>
+      </c>
+      <c r="F19" s="16"/>
+    </row>
+    <row r="20" ht="20.35" customHeight="1">
+      <c r="A20" t="s" s="13">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s" s="14">
+        <v>45</v>
+      </c>
+      <c r="C20" s="15">
+        <f>VLOOKUP(B20,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
+        <v>3</v>
+      </c>
+      <c r="D20" t="s" s="16">
+        <v>26</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+    </row>
+    <row r="21" ht="20.35" customHeight="1">
+      <c r="A21" t="s" s="13">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s" s="14">
+        <v>45</v>
+      </c>
+      <c r="C21" s="15">
+        <f>VLOOKUP(B21,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
+        <v>3</v>
+      </c>
+      <c r="D21" t="s" s="16">
+        <v>26</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" ht="32.35" customHeight="1">
+      <c r="A22" t="s" s="13">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s" s="14">
+        <v>45</v>
+      </c>
+      <c r="C22" s="15">
+        <f>VLOOKUP(B22,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
+        <v>3</v>
+      </c>
+      <c r="D22" t="s" s="16">
+        <v>34</v>
+      </c>
+      <c r="E22" t="s" s="16">
+        <v>48</v>
+      </c>
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23" ht="32.35" customHeight="1">
+      <c r="A23" t="s" s="13">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s" s="14">
+        <v>45</v>
+      </c>
+      <c r="C23" s="15">
+        <f>VLOOKUP(B23,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
+        <v>3</v>
+      </c>
+      <c r="D23" t="s" s="16">
+        <v>14</v>
+      </c>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+    </row>
+    <row r="24" ht="20.35" customHeight="1">
+      <c r="A24" t="s" s="13">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s" s="14">
+        <v>45</v>
+      </c>
+      <c r="C24" s="15">
+        <f>VLOOKUP(B24,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
+        <v>3</v>
+      </c>
+      <c r="D24" t="s" s="16">
+        <v>14</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+    </row>
+    <row r="25" ht="20.35" customHeight="1">
+      <c r="A25" t="s" s="13">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s" s="14">
         <v>52</v>
       </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" ht="20.55" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="C25" s="15">
+        <f>VLOOKUP(B25,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
+        <v>4</v>
+      </c>
+      <c r="D25" t="s" s="16">
+        <v>14</v>
+      </c>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+    </row>
+    <row r="26" ht="20.35" customHeight="1">
+      <c r="A26" t="s" s="13">
         <v>53</v>
       </c>
-      <c r="B2" t="s" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" ht="20.55" customHeight="1">
-      <c r="A3" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="B3" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" ht="20.35" customHeight="1">
-      <c r="A4" t="s" s="8">
-        <v>22</v>
-      </c>
-      <c r="B4" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" t="s" s="8">
-        <v>36</v>
-      </c>
-      <c r="B5" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" t="s" s="8">
-        <v>43</v>
-      </c>
-      <c r="B6" s="15">
+      <c r="B26" t="s" s="14">
+        <v>52</v>
+      </c>
+      <c r="C26" s="15">
+        <f>VLOOKUP(B26,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
         <v>4</v>
       </c>
+      <c r="D26" t="s" s="16">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s" s="16">
+        <v>54</v>
+      </c>
+      <c r="F26" s="16"/>
+    </row>
+    <row r="27" ht="20.35" customHeight="1">
+      <c r="A27" t="s" s="13">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s" s="14">
+        <v>52</v>
+      </c>
+      <c r="C27" s="15">
+        <f>VLOOKUP(B27,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
+        <v>4</v>
+      </c>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+    </row>
+    <row r="28" ht="20.35" customHeight="1">
+      <c r="A28" t="s" s="13">
+        <v>56</v>
+      </c>
+      <c r="B28" t="s" s="14">
+        <v>52</v>
+      </c>
+      <c r="C28" s="15">
+        <f>VLOOKUP(B28,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
+        <v>4</v>
+      </c>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+    </row>
+    <row r="29" ht="20.35" customHeight="1">
+      <c r="A29" t="s" s="13">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s" s="14">
+        <v>52</v>
+      </c>
+      <c r="C29" s="15">
+        <f>VLOOKUP(B29,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
+        <v>4</v>
+      </c>
+      <c r="D29" t="s" s="16">
+        <v>14</v>
+      </c>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+    </row>
+    <row r="30" ht="20.35" customHeight="1">
+      <c r="A30" t="s" s="13">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s" s="14">
+        <v>52</v>
+      </c>
+      <c r="C30" s="15">
+        <f>VLOOKUP(B30,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
+        <v>4</v>
+      </c>
+      <c r="D30" t="s" s="16">
+        <v>26</v>
+      </c>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+    </row>
+    <row r="31" ht="20.35" customHeight="1">
+      <c r="A31" t="s" s="13">
+        <v>59</v>
+      </c>
+      <c r="B31" t="s" s="14">
+        <v>52</v>
+      </c>
+      <c r="C31" s="15">
+        <f>VLOOKUP(B31,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
+        <v>4</v>
+      </c>
+      <c r="D31" s="16"/>
+      <c r="E31" t="s" s="16">
+        <v>60</v>
+      </c>
+      <c r="F31" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F7" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="E22" r:id="rId2" location="" tooltip="" display=""/>
+  </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
@@ -2223,51 +2377,55 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="16" customWidth="1"/>
-    <col min="2" max="2" width="20.8516" style="16" customWidth="1"/>
-    <col min="3" max="256" width="16.3516" style="16" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="18" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="18" customWidth="1"/>
+    <col min="3" max="256" width="16.3516" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="B1" s="2"/>
+      <c r="A1" t="s" s="7">
+        <v>61</v>
+      </c>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" ht="20.55" customHeight="1">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
+      <c r="A2" t="s" s="8">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s" s="8">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" ht="20.55" customHeight="1">
-      <c r="A3" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s" s="5">
-        <v>55</v>
+      <c r="A3" t="s" s="9">
+        <v>13</v>
+      </c>
+      <c r="B3" s="19">
+        <v>1</v>
       </c>
     </row>
     <row r="4" ht="20.35" customHeight="1">
-      <c r="A4" t="s" s="8">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s" s="9">
-        <v>56</v>
+      <c r="A4" t="s" s="13">
+        <v>31</v>
+      </c>
+      <c r="B4" s="20">
+        <v>2</v>
       </c>
     </row>
     <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" t="s" s="8">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s" s="9">
-        <v>57</v>
+      <c r="A5" t="s" s="13">
+        <v>45</v>
+      </c>
+      <c r="B5" s="20">
+        <v>3</v>
       </c>
     </row>
     <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" t="s" s="8">
-        <v>43</v>
-      </c>
-      <c r="B6" t="s" s="9">
-        <v>58</v>
+      <c r="A6" t="s" s="13">
+        <v>52</v>
+      </c>
+      <c r="B6" s="20">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2287,6 +2445,78 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A2:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="16.3516" style="21" customWidth="1"/>
+    <col min="2" max="2" width="20.8516" style="21" customWidth="1"/>
+    <col min="3" max="256" width="16.3516" style="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="28" customHeight="1">
+      <c r="A1" t="s" s="7">
+        <v>64</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" ht="20.55" customHeight="1">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+    </row>
+    <row r="3" ht="20.55" customHeight="1">
+      <c r="A3" t="s" s="9">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s" s="10">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" ht="20.35" customHeight="1">
+      <c r="A4" t="s" s="13">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="14">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" ht="20.35" customHeight="1">
+      <c r="A5" t="s" s="13">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s" s="14">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" ht="20.35" customHeight="1">
+      <c r="A6" t="s" s="13">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s" s="14">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
@@ -2295,119 +2525,119 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="3" style="18" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="18" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="18" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="18" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="18" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="18" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="18" customWidth="1"/>
-    <col min="8" max="256" width="16.3516" style="18" customWidth="1"/>
+    <col min="1" max="1" width="3" style="23" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="23" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="23" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="23" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="23" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="23" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="23" customWidth="1"/>
+    <col min="8" max="256" width="16.3516" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="32.55" customHeight="1">
-      <c r="A1" t="s" s="3">
-        <v>59</v>
-      </c>
-      <c r="B1" t="s" s="3">
-        <v>60</v>
-      </c>
-      <c r="C1" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="D1" t="s" s="3">
-        <v>62</v>
-      </c>
-      <c r="E1" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="F1" t="s" s="3">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s" s="3">
-        <v>64</v>
+      <c r="A1" t="s" s="8">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s" s="8">
+        <v>73</v>
+      </c>
+      <c r="C1" t="s" s="8">
+        <v>74</v>
+      </c>
+      <c r="D1" t="s" s="8">
+        <v>75</v>
+      </c>
+      <c r="E1" t="s" s="8">
+        <v>76</v>
+      </c>
+      <c r="F1" t="s" s="8">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s" s="8">
+        <v>77</v>
       </c>
     </row>
     <row r="2" ht="20.55" customHeight="1">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" ht="20.35" customHeight="1">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" ht="20.35" customHeight="1">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
     </row>
     <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
     </row>
     <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
     </row>
     <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
     </row>
     <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/01_Planning/InitalPlanning.xlsx
+++ b/01_Planning/InitalPlanning.xlsx
@@ -10,13 +10,14 @@
     <sheet name="Ressource Planning - Ressource " sheetId="2" r:id="rId5"/>
     <sheet name="Ressource Planning - Prios as N" sheetId="3" r:id="rId6"/>
     <sheet name="Ressource Planning - Priorities" sheetId="4" r:id="rId7"/>
-    <sheet name="First User Stories" sheetId="5" r:id="rId8"/>
+    <sheet name="Ressource Planning - Completed" sheetId="5" r:id="rId8"/>
+    <sheet name="First User Stories" sheetId="6" r:id="rId9"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -63,17 +64,7 @@
     <t>Peter</t>
   </si>
   <si>
-    <t>Maintain existing Naos</t>
-  </si>
-  <si>
-    <t>Temperature problems (Judy)
-Arm movement (Luc)</t>
-  </si>
-  <si>
-    <t>Ball</t>
-  </si>
-  <si>
-    <t>Jul06: Sent e-mail and asked for price and shipping costs.</t>
+    <t>Aug17: August 30 will be meeting w/ M. Mauerkirchner to ask about budget.</t>
   </si>
   <si>
     <t>Own lockable room</t>
@@ -82,42 +73,6 @@
     <t>Jul06: Clarified with Mr. Mörixbauer and Mr. Holzer that we can use a part of the room opposite to the music room (where the desks are currently stored). Room will be available by start of next school year.</t>
   </si>
   <si>
-    <t>Bitbucket repository</t>
-  </si>
-  <si>
-    <t>Sabina</t>
-  </si>
-  <si>
-    <t>Bauepete</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve">Jul05: Bitbucket not feasible since max 5 team members are allowed. Repository at </t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>gitlab.htl-leonding.ac.at</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve"> now set up. All team members have accounts and are member of the gitlab group. DONE.</t>
-    </r>
-  </si>
-  <si>
     <t>Check SPL Site regularly</t>
   </si>
   <si>
@@ -127,10 +82,7 @@
     <t>http://www.tzi.de/spl/bin/view/Website/WebHome</t>
   </si>
   <si>
-    <t>Chip Thomas Himmelbauer</t>
-  </si>
-  <si>
-    <t>Summer access</t>
+    <t>Aug17: No news.</t>
   </si>
   <si>
     <t>Super soft green carpet (&gt;= 6 * 5 m)</t>
@@ -139,52 +91,37 @@
     <t>High</t>
   </si>
   <si>
+    <t>Aug17: depends on content of new rules</t>
+  </si>
+  <si>
     <t>White color</t>
   </si>
   <si>
-    <t>Print 2016 rules</t>
+    <t>Get pin board</t>
+  </si>
+  <si>
+    <t>Aug17: Will be done via IKEA by the girls. Invoice to Peter.</t>
+  </si>
+  <si>
+    <t>Get couch</t>
+  </si>
+  <si>
+    <t>Everybody asks!!!</t>
+  </si>
+  <si>
+    <t>Buy referee whistle</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Name + Logo</t>
+  </si>
+  <si>
+    <t>Domain + Website</t>
   </si>
   <si>
     <t>Meli</t>
-  </si>
-  <si>
-    <t>Construct one goal</t>
-  </si>
-  <si>
-    <t>Buy 4 new batteries</t>
-  </si>
-  <si>
-    <t>LAN cables</t>
-  </si>
-  <si>
-    <t>Thomas Himmelbauer</t>
-  </si>
-  <si>
-    <t>Get tool set</t>
-  </si>
-  <si>
-    <t>with Thomas</t>
-  </si>
-  <si>
-    <t>Get pin board</t>
-  </si>
-  <si>
-    <t>Get couch</t>
-  </si>
-  <si>
-    <t>Everybody asks!!!</t>
-  </si>
-  <si>
-    <t>Buy referee whistle</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Name + Logo</t>
-  </si>
-  <si>
-    <t>Domain + Website</t>
   </si>
   <si>
     <r>
@@ -221,12 +158,18 @@
     <t>More stuff to the team</t>
   </si>
   <si>
+    <t>Pink and black LAN cables</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Thomas Himmelbauer</t>
+  </si>
+  <si>
     <t>Buy four more Naos</t>
   </si>
   <si>
-    <t>Low</t>
-  </si>
-  <si>
     <t>Nao Trikots</t>
   </si>
   <si>
@@ -276,6 +219,95 @@
   </si>
   <si>
     <t>From December onwards</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Ressource Planning - Completed</t>
+  </si>
+  <si>
+    <t>Maintain existing Naos</t>
+  </si>
+  <si>
+    <t>Temperature problems (Judy)
+Arm movement (Luc)</t>
+  </si>
+  <si>
+    <t>Aug17: Maintenance of old hardware was quit by SoftBank. We have to buy new one and get along with the old hardware for the first time. DONE</t>
+  </si>
+  <si>
+    <t>Ball</t>
+  </si>
+  <si>
+    <t>Jul06: Sent e-mail and asked for price and shipping costs.
+Aug17: DONE</t>
+  </si>
+  <si>
+    <t>Bitbucket repository</t>
+  </si>
+  <si>
+    <t>Sabina</t>
+  </si>
+  <si>
+    <t>Bauepete</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">Jul05: Bitbucket not feasible since max 5 team members are allowed. Repository at </t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>gitlab.htl-leonding.ac.at</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> now set up. All team members have accounts and are member of the gitlab group. DONE.</t>
+    </r>
+  </si>
+  <si>
+    <t>Chip Thomas Himmelbauer</t>
+  </si>
+  <si>
+    <t>Aug17: Against any expectations Thomas is not amused. DONE</t>
+  </si>
+  <si>
+    <t>Summer access</t>
+  </si>
+  <si>
+    <t>Aug17: We will use Viki’s home :-). DONE</t>
+  </si>
+  <si>
+    <t>Print 2016 rules</t>
+  </si>
+  <si>
+    <t>Aug17: DONE</t>
+  </si>
+  <si>
+    <t>Construct one goal</t>
+  </si>
+  <si>
+    <t>Aug17: Goal is finished. DONE</t>
+  </si>
+  <si>
+    <t>Get tool set</t>
+  </si>
+  <si>
+    <t>with Thomas</t>
   </si>
   <si>
     <t>First User Stories</t>
@@ -495,7 +527,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -555,6 +587,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -1741,35 +1776,44 @@
     <row r="11">
       <c r="B11" s="4"/>
       <c r="C11" t="s" s="4">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s" s="5">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="4"/>
       <c r="C12" t="s" s="4">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s" s="5">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="3">
-        <v>70</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" t="s" s="4">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s" s="5">
+        <v>60</v>
+      </c>
     </row>
     <row r="14">
-      <c r="B14" s="4"/>
-      <c r="C14" t="s" s="4">
-        <v>71</v>
-      </c>
-      <c r="D14" t="s" s="5">
-        <v>70</v>
+      <c r="B14" t="s" s="3">
+        <v>80</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="4"/>
+      <c r="C15" t="s" s="4">
+        <v>81</v>
+      </c>
+      <c r="D15" t="s" s="5">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1780,7 +1824,8 @@
     <hyperlink ref="D10" location="'Ressource Planning - Ressource '!R2C1" tooltip="" display="Ressource Planning - Ressource "/>
     <hyperlink ref="D11" location="'Ressource Planning - Prios as N'!R2C1" tooltip="" display="Ressource Planning - Prios as N"/>
     <hyperlink ref="D12" location="'Ressource Planning - Priorities'!R2C1" tooltip="" display="Ressource Planning - Priorities"/>
-    <hyperlink ref="D14" location="'First User Stories'!R1C1" tooltip="" display="First User Stories"/>
+    <hyperlink ref="D13" location="'Ressource Planning - Completed'!R2C1" tooltip="" display="Ressource Planning - Completed"/>
+    <hyperlink ref="D15" location="'First User Stories'!R1C1" tooltip="" display="First User Stories"/>
   </hyperlinks>
 </worksheet>
 </file>
@@ -1790,7 +1835,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:F31"/>
+  <dimension ref="A2:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -1837,7 +1882,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" ht="20.55" customHeight="1">
+    <row r="3" ht="44.55" customHeight="1">
       <c r="A3" t="s" s="9">
         <v>12</v>
       </c>
@@ -1852,11 +1897,13 @@
         <v>14</v>
       </c>
       <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-    </row>
-    <row r="4" ht="32.35" customHeight="1">
+      <c r="F3" t="s" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" ht="92.35" customHeight="1">
       <c r="A4" t="s" s="13">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s" s="14">
         <v>13</v>
@@ -1868,14 +1915,14 @@
       <c r="D4" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="E4" t="s" s="16">
-        <v>16</v>
-      </c>
-      <c r="F4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" t="s" s="16">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" ht="32.35" customHeight="1">
       <c r="A5" t="s" s="13">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s" s="14">
         <v>13</v>
@@ -1885,476 +1932,320 @@
         <v>1</v>
       </c>
       <c r="D5" t="s" s="16">
-        <v>14</v>
-      </c>
-      <c r="E5" s="16"/>
+        <v>19</v>
+      </c>
+      <c r="E5" t="s" s="16">
+        <v>20</v>
+      </c>
       <c r="F5" t="s" s="16">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" ht="92.35" customHeight="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" ht="32.35" customHeight="1">
       <c r="A6" t="s" s="13">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s" s="14">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C6" s="15">
         <f>VLOOKUP(B6,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="E6" s="16"/>
+      <c r="E6" s="17"/>
       <c r="F6" t="s" s="16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" ht="92.35" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" ht="32.35" customHeight="1">
       <c r="A7" t="s" s="13">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s" s="14">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C7" s="15">
         <f>VLOOKUP(B7,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s" s="16">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s" s="16">
-        <v>23</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E7" s="17"/>
       <c r="F7" t="s" s="16">
         <v>24</v>
       </c>
     </row>
     <row r="8" ht="32.35" customHeight="1">
       <c r="A8" t="s" s="13">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s" s="14">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C8" s="15">
         <f>VLOOKUP(B8,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s" s="16">
-        <v>26</v>
-      </c>
-      <c r="E8" t="s" s="16">
+        <v>14</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" t="s" s="16">
         <v>27</v>
       </c>
-      <c r="F8" s="16"/>
     </row>
     <row r="9" ht="20.35" customHeight="1">
       <c r="A9" t="s" s="13">
         <v>28</v>
       </c>
       <c r="B9" t="s" s="14">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C9" s="15">
         <f>VLOOKUP(B9,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s" s="16">
-        <v>22</v>
-      </c>
-      <c r="E9" s="16"/>
+        <v>19</v>
+      </c>
+      <c r="E9" t="s" s="16">
+        <v>29</v>
+      </c>
       <c r="F9" s="16"/>
     </row>
     <row r="10" ht="20.35" customHeight="1">
       <c r="A10" t="s" s="13">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s" s="14">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C10" s="15">
         <f>VLOOKUP(B10,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s" s="16">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
     </row>
     <row r="11" ht="20.35" customHeight="1">
       <c r="A11" t="s" s="13">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s" s="14">
         <v>31</v>
       </c>
       <c r="C11" s="15">
         <f>VLOOKUP(B11,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="s" s="16">
-        <v>14</v>
-      </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-    </row>
-    <row r="12" ht="20.35" customHeight="1">
+        <v>19</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" ht="32.35" customHeight="1">
       <c r="A12" t="s" s="13">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s" s="14">
         <v>31</v>
       </c>
       <c r="C12" s="15">
         <f>VLOOKUP(B12,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="s" s="16">
-        <v>14</v>
-      </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-    </row>
-    <row r="13" ht="20.35" customHeight="1">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s" s="16">
+        <v>35</v>
+      </c>
+      <c r="F12" s="16"/>
+    </row>
+    <row r="13" ht="32.35" customHeight="1">
       <c r="A13" t="s" s="13">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s" s="14">
         <v>31</v>
       </c>
       <c r="C13" s="15">
         <f>VLOOKUP(B13,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="s" s="16">
-        <v>34</v>
-      </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
+        <v>14</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
     </row>
     <row r="14" ht="20.35" customHeight="1">
       <c r="A14" t="s" s="13">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s" s="14">
         <v>31</v>
       </c>
       <c r="C14" s="15">
         <f>VLOOKUP(B14,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="s" s="16">
-        <v>22</v>
-      </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
+        <v>14</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
     </row>
     <row r="15" ht="20.35" customHeight="1">
       <c r="A15" t="s" s="13">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s" s="14">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C15" s="15">
         <f>VLOOKUP(B15,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="s" s="16">
-        <v>14</v>
-      </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
+        <v>34</v>
+      </c>
+      <c r="E15" t="s" s="16">
+        <v>40</v>
+      </c>
+      <c r="F15" s="16"/>
     </row>
     <row r="16" ht="20.35" customHeight="1">
       <c r="A16" t="s" s="13">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s" s="14">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C16" s="15">
         <f>VLOOKUP(B16,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="s" s="16">
-        <v>34</v>
-      </c>
-      <c r="E16" t="s" s="16">
-        <v>38</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E16" s="16"/>
       <c r="F16" s="16"/>
     </row>
     <row r="17" ht="20.35" customHeight="1">
       <c r="A17" t="s" s="13">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s" s="14">
         <v>39</v>
-      </c>
-      <c r="B17" t="s" s="14">
-        <v>31</v>
       </c>
       <c r="C17" s="15">
         <f>VLOOKUP(B17,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s" s="16">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s" s="16">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F17" s="16"/>
     </row>
     <row r="18" ht="20.35" customHeight="1">
       <c r="A18" t="s" s="13">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s" s="14">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C18" s="15">
         <f>VLOOKUP(B18,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
-        <v>2</v>
-      </c>
-      <c r="D18" t="s" s="16">
-        <v>14</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D18" s="17"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
     </row>
     <row r="19" ht="20.35" customHeight="1">
       <c r="A19" t="s" s="13">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s" s="14">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C19" s="15">
         <f>VLOOKUP(B19,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
-        <v>2</v>
-      </c>
-      <c r="D19" t="s" s="16">
-        <v>26</v>
-      </c>
-      <c r="E19" t="s" s="16">
-        <v>43</v>
-      </c>
-      <c r="F19" s="16"/>
+        <v>4</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
     </row>
     <row r="20" ht="20.35" customHeight="1">
       <c r="A20" t="s" s="13">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s" s="14">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C20" s="15">
         <f>VLOOKUP(B20,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="s" s="16">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
     </row>
     <row r="21" ht="20.35" customHeight="1">
       <c r="A21" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s" s="14">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C21" s="15">
         <f>VLOOKUP(B21,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="s" s="16">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
     </row>
-    <row r="22" ht="32.35" customHeight="1">
+    <row r="22" ht="20.35" customHeight="1">
       <c r="A22" t="s" s="13">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s" s="14">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C22" s="15">
         <f>VLOOKUP(B22,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
-        <v>3</v>
-      </c>
-      <c r="D22" t="s" s="16">
-        <v>34</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D22" s="16"/>
       <c r="E22" t="s" s="16">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F22" s="16"/>
-    </row>
-    <row r="23" ht="32.35" customHeight="1">
-      <c r="A23" t="s" s="13">
-        <v>49</v>
-      </c>
-      <c r="B23" t="s" s="14">
-        <v>45</v>
-      </c>
-      <c r="C23" s="15">
-        <f>VLOOKUP(B23,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
-        <v>3</v>
-      </c>
-      <c r="D23" t="s" s="16">
-        <v>14</v>
-      </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-    </row>
-    <row r="24" ht="20.35" customHeight="1">
-      <c r="A24" t="s" s="13">
-        <v>50</v>
-      </c>
-      <c r="B24" t="s" s="14">
-        <v>45</v>
-      </c>
-      <c r="C24" s="15">
-        <f>VLOOKUP(B24,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
-        <v>3</v>
-      </c>
-      <c r="D24" t="s" s="16">
-        <v>14</v>
-      </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-    </row>
-    <row r="25" ht="20.35" customHeight="1">
-      <c r="A25" t="s" s="13">
-        <v>51</v>
-      </c>
-      <c r="B25" t="s" s="14">
-        <v>52</v>
-      </c>
-      <c r="C25" s="15">
-        <f>VLOOKUP(B25,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
-        <v>4</v>
-      </c>
-      <c r="D25" t="s" s="16">
-        <v>14</v>
-      </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-    </row>
-    <row r="26" ht="20.35" customHeight="1">
-      <c r="A26" t="s" s="13">
-        <v>53</v>
-      </c>
-      <c r="B26" t="s" s="14">
-        <v>52</v>
-      </c>
-      <c r="C26" s="15">
-        <f>VLOOKUP(B26,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
-        <v>4</v>
-      </c>
-      <c r="D26" t="s" s="16">
-        <v>14</v>
-      </c>
-      <c r="E26" t="s" s="16">
-        <v>54</v>
-      </c>
-      <c r="F26" s="16"/>
-    </row>
-    <row r="27" ht="20.35" customHeight="1">
-      <c r="A27" t="s" s="13">
-        <v>55</v>
-      </c>
-      <c r="B27" t="s" s="14">
-        <v>52</v>
-      </c>
-      <c r="C27" s="15">
-        <f>VLOOKUP(B27,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
-        <v>4</v>
-      </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-    </row>
-    <row r="28" ht="20.35" customHeight="1">
-      <c r="A28" t="s" s="13">
-        <v>56</v>
-      </c>
-      <c r="B28" t="s" s="14">
-        <v>52</v>
-      </c>
-      <c r="C28" s="15">
-        <f>VLOOKUP(B28,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
-        <v>4</v>
-      </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-    </row>
-    <row r="29" ht="20.35" customHeight="1">
-      <c r="A29" t="s" s="13">
-        <v>57</v>
-      </c>
-      <c r="B29" t="s" s="14">
-        <v>52</v>
-      </c>
-      <c r="C29" s="15">
-        <f>VLOOKUP(B29,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
-        <v>4</v>
-      </c>
-      <c r="D29" t="s" s="16">
-        <v>14</v>
-      </c>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-    </row>
-    <row r="30" ht="20.35" customHeight="1">
-      <c r="A30" t="s" s="13">
-        <v>58</v>
-      </c>
-      <c r="B30" t="s" s="14">
-        <v>52</v>
-      </c>
-      <c r="C30" s="15">
-        <f>VLOOKUP(B30,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
-        <v>4</v>
-      </c>
-      <c r="D30" t="s" s="16">
-        <v>26</v>
-      </c>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-    </row>
-    <row r="31" ht="20.35" customHeight="1">
-      <c r="A31" t="s" s="13">
-        <v>59</v>
-      </c>
-      <c r="B31" t="s" s="14">
-        <v>52</v>
-      </c>
-      <c r="C31" s="15">
-        <f>VLOOKUP(B31,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
-        <v>4</v>
-      </c>
-      <c r="D31" s="16"/>
-      <c r="E31" t="s" s="16">
-        <v>60</v>
-      </c>
-      <c r="F31" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F7" r:id="rId1" location="" tooltip="" display=""/>
-    <hyperlink ref="E22" r:id="rId2" location="" tooltip="" display=""/>
+    <hyperlink ref="E12" r:id="rId1" location="" tooltip="" display=""/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -2384,13 +2275,13 @@
   <sheetData>
     <row r="1" ht="28" customHeight="1">
       <c r="A1" t="s" s="7">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B1" s="7"/>
     </row>
     <row r="2" ht="20.55" customHeight="1">
       <c r="A2" t="s" s="8">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s" s="8">
         <v>8</v>
@@ -2406,7 +2297,7 @@
     </row>
     <row r="4" ht="20.35" customHeight="1">
       <c r="A4" t="s" s="13">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B4" s="20">
         <v>2</v>
@@ -2414,7 +2305,7 @@
     </row>
     <row r="5" ht="20.35" customHeight="1">
       <c r="A5" t="s" s="13">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B5" s="20">
         <v>3</v>
@@ -2422,7 +2313,7 @@
     </row>
     <row r="6" ht="20.35" customHeight="1">
       <c r="A6" t="s" s="13">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B6" s="20">
         <v>4</v>
@@ -2460,7 +2351,7 @@
   <sheetData>
     <row r="1" ht="28" customHeight="1">
       <c r="A1" t="s" s="7">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B1" s="7"/>
     </row>
@@ -2473,31 +2364,31 @@
         <v>13</v>
       </c>
       <c r="B3" t="s" s="10">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" ht="20.35" customHeight="1">
       <c r="A4" t="s" s="13">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s" s="14">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" ht="20.35" customHeight="1">
       <c r="A5" t="s" s="13">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s" s="14">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" ht="20.35" customHeight="1">
       <c r="A6" t="s" s="13">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s" s="14">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2517,6 +2408,231 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A2:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="34.9453" style="23" customWidth="1"/>
+    <col min="2" max="2" width="8.67188" style="23" customWidth="1"/>
+    <col min="3" max="3" width="6.17188" style="23" customWidth="1"/>
+    <col min="4" max="4" width="11.3516" style="23" customWidth="1"/>
+    <col min="5" max="5" width="26.8047" style="23" customWidth="1"/>
+    <col min="6" max="6" width="26.8047" style="23" customWidth="1"/>
+    <col min="7" max="256" width="16.3516" style="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="28" customHeight="1">
+      <c r="A1" t="s" s="7">
+        <v>59</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" ht="20.55" customHeight="1">
+      <c r="A2" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s" s="8">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s" s="8">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" ht="68.55" customHeight="1">
+      <c r="A3" t="s" s="9">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="C3" s="11">
+        <f>VLOOKUP(B3,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
+        <v>1</v>
+      </c>
+      <c r="D3" t="s" s="12">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s" s="12">
+        <v>62</v>
+      </c>
+      <c r="F3" t="s" s="12">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" ht="44.35" customHeight="1">
+      <c r="A4" t="s" s="13">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="C4" s="15">
+        <f>VLOOKUP(B4,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
+        <v>1</v>
+      </c>
+      <c r="D4" t="s" s="16">
+        <v>14</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" t="s" s="16">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" ht="92.35" customHeight="1">
+      <c r="A5" t="s" s="13">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="C5" s="15">
+        <f>VLOOKUP(B5,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
+        <v>1</v>
+      </c>
+      <c r="D5" t="s" s="16">
+        <v>67</v>
+      </c>
+      <c r="E5" t="s" s="16">
+        <v>68</v>
+      </c>
+      <c r="F5" t="s" s="16">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" ht="32.35" customHeight="1">
+      <c r="A6" t="s" s="13">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="C6" s="15">
+        <f>VLOOKUP(B6,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
+        <v>1</v>
+      </c>
+      <c r="D6" t="s" s="16">
+        <v>67</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" t="s" s="16">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" ht="32.35" customHeight="1">
+      <c r="A7" t="s" s="13">
+        <v>72</v>
+      </c>
+      <c r="B7" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="C7" s="15">
+        <f>VLOOKUP(B7,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" t="s" s="16">
+        <v>14</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" t="s" s="16">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" ht="20.35" customHeight="1">
+      <c r="A8" t="s" s="13">
+        <v>74</v>
+      </c>
+      <c r="B8" t="s" s="14">
+        <v>23</v>
+      </c>
+      <c r="C8" s="15">
+        <f>VLOOKUP(B8,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
+        <v>2</v>
+      </c>
+      <c r="D8" t="s" s="16">
+        <v>34</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" t="s" s="16">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" ht="20.35" customHeight="1">
+      <c r="A9" t="s" s="13">
+        <v>76</v>
+      </c>
+      <c r="B9" t="s" s="14">
+        <v>23</v>
+      </c>
+      <c r="C9" s="15">
+        <f>VLOOKUP(B9,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
+        <v>2</v>
+      </c>
+      <c r="D9" t="s" s="16">
+        <v>67</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" t="s" s="16">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" ht="20.35" customHeight="1">
+      <c r="A10" t="s" s="13">
+        <v>78</v>
+      </c>
+      <c r="B10" t="s" s="14">
+        <v>23</v>
+      </c>
+      <c r="C10" s="15">
+        <f>VLOOKUP(B10,'Ressource Planning - Prios as N'!$A$3:$B$6,2)</f>
+        <v>2</v>
+      </c>
+      <c r="D10" t="s" s="16">
+        <v>67</v>
+      </c>
+      <c r="E10" t="s" s="16">
+        <v>79</v>
+      </c>
+      <c r="F10" t="s" s="16">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F5" r:id="rId1" location="" tooltip="" display=""/>
+  </hyperlinks>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
@@ -2525,116 +2641,116 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="3" style="23" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="23" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="23" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="23" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="23" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="23" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="23" customWidth="1"/>
-    <col min="8" max="256" width="16.3516" style="23" customWidth="1"/>
+    <col min="1" max="1" width="3" style="24" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="24" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="24" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="24" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="24" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="24" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="24" customWidth="1"/>
+    <col min="8" max="256" width="16.3516" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="32.55" customHeight="1">
       <c r="A1" t="s" s="8">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s" s="8">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C1" t="s" s="8">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D1" t="s" s="8">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E1" t="s" s="8">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F1" t="s" s="8">
         <v>7</v>
       </c>
       <c r="G1" t="s" s="8">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" ht="20.55" customHeight="1">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
     </row>
     <row r="3" ht="20.35" customHeight="1">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
     </row>
     <row r="4" ht="20.35" customHeight="1">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="31"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
     </row>
     <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="30"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
     </row>
     <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="30"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="31"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
     </row>
     <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="31"/>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
     </row>
     <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="31"/>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
     </row>
     <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="30"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
     </row>
     <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
